--- a/TH-Lübeck_Prüfungsplan_Elektrotechnik_Informatik_SoSe-2021.xlsx
+++ b/TH-Lübeck_Prüfungsplan_Elektrotechnik_Informatik_SoSe-2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="284">
   <si>
     <t>Stand:</t>
   </si>
@@ -47,33 +47,363 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>Adam Angst</t>
+  </si>
+  <si>
+    <t>BWL , KM2</t>
+  </si>
+  <si>
+    <t>MNG 1 , 18.1.03</t>
+  </si>
+  <si>
+    <t>GE 3 , KM2</t>
+  </si>
+  <si>
+    <t>Kt 2 , KM1</t>
+  </si>
+  <si>
     <t>Anna Angst</t>
   </si>
   <si>
-    <t>Ma1 , AM1</t>
-  </si>
-  <si>
-    <t>Phy1 , AM1,18.1.03</t>
-  </si>
-  <si>
-    <t>Elt1 , AM1</t>
+    <t>Ma1 , AM1,AM5</t>
+  </si>
+  <si>
+    <t>SWT1 , 19.1.01</t>
+  </si>
+  <si>
+    <t>TI , 17.1.03</t>
+  </si>
+  <si>
+    <t>GE 1 , 19.1.05</t>
+  </si>
+  <si>
+    <t>PM_SM , AM6</t>
+  </si>
+  <si>
+    <t>KN , 23.0.01</t>
+  </si>
+  <si>
+    <t>PC 1 , AM1</t>
+  </si>
+  <si>
+    <t>Ben Bus</t>
+  </si>
+  <si>
+    <t>Prog 1 , 21.0.03</t>
+  </si>
+  <si>
+    <t>MiP 1 , AM3</t>
+  </si>
+  <si>
+    <t>Hft , 19.1.05</t>
+  </si>
+  <si>
+    <t>HWE , 21.0.03</t>
+  </si>
+  <si>
+    <t>PCM , 18.1.03</t>
+  </si>
+  <si>
+    <t>AMA 3 , AM3</t>
+  </si>
+  <si>
+    <t>Detlef Angst</t>
+  </si>
+  <si>
+    <t>BS , 21.0.02</t>
+  </si>
+  <si>
+    <t>DS , AM5</t>
+  </si>
+  <si>
+    <t>Phy , AM6</t>
+  </si>
+  <si>
+    <t>DSV , 21.0.02</t>
+  </si>
+  <si>
+    <t>GE 1 , 17.1.02</t>
+  </si>
+  <si>
+    <t>AE 3 , KM1</t>
+  </si>
+  <si>
+    <t>Georg Grün</t>
+  </si>
+  <si>
+    <t>GG , 17.1.02</t>
+  </si>
+  <si>
+    <t>RuC 3 , 23.0.01</t>
+  </si>
+  <si>
+    <t>Kt 3 , 18.1.03</t>
+  </si>
+  <si>
+    <t>RF 3 , AM3</t>
+  </si>
+  <si>
+    <t>AE 2 , 21.0.02</t>
+  </si>
+  <si>
+    <t>Jochen Angst</t>
+  </si>
+  <si>
+    <t>POC , KM1</t>
+  </si>
+  <si>
+    <t>Ma/Phy , 18.1.03</t>
+  </si>
+  <si>
+    <t>MT , 17.1.03</t>
+  </si>
+  <si>
+    <t>Johannes Pohn</t>
+  </si>
+  <si>
+    <t>NES , 19.1.02</t>
+  </si>
+  <si>
+    <t>SEII , 18.1.01</t>
+  </si>
+  <si>
+    <t>Phy 3 , 23.0.03</t>
+  </si>
+  <si>
+    <t>DÜT , 18.1.01</t>
+  </si>
+  <si>
+    <t>RF , 21.0.02</t>
+  </si>
+  <si>
+    <t>Jonas Pohn</t>
+  </si>
+  <si>
+    <t>CS II , AM3</t>
   </si>
   <si>
     <t>Klaus Kleber</t>
   </si>
   <si>
+    <t>BS2 , AM1</t>
+  </si>
+  <si>
+    <t>VSys2 , 19.1.04</t>
+  </si>
+  <si>
+    <t>BWL , AM3</t>
+  </si>
+  <si>
+    <t>VProg , AM1</t>
+  </si>
+  <si>
+    <t>BWL , AM1</t>
+  </si>
+  <si>
+    <t>Ma E 2 , AM3</t>
+  </si>
+  <si>
+    <t>Ma E 3 , AM1</t>
+  </si>
+  <si>
+    <t>MWT , AM2</t>
+  </si>
+  <si>
+    <t>RuC 2 , AM2</t>
+  </si>
+  <si>
+    <t>PC 2 , AM1</t>
+  </si>
+  <si>
+    <t>CS III , AM1</t>
+  </si>
+  <si>
+    <t>PC 3 , AM1</t>
+  </si>
+  <si>
+    <t>AE 4 , AM3</t>
+  </si>
+  <si>
+    <t>Klaus Mein</t>
+  </si>
+  <si>
+    <t>CN , 18.1.04</t>
+  </si>
+  <si>
+    <t>ElekV , AM1</t>
+  </si>
+  <si>
+    <t>DuI 3 , 23.0.02</t>
+  </si>
+  <si>
+    <t>Lara Neun</t>
+  </si>
+  <si>
+    <t>GEW 1 , 21.0.01</t>
+  </si>
+  <si>
+    <t>IT_SYS , 19.1.03</t>
+  </si>
+  <si>
+    <t>GE 2 , AM3</t>
+  </si>
+  <si>
+    <t>Kt , AM1</t>
+  </si>
+  <si>
+    <t>Lisa Grün</t>
+  </si>
+  <si>
+    <t>MAE , 19.1.03</t>
+  </si>
+  <si>
+    <t>HIS , 18.1.01</t>
+  </si>
+  <si>
+    <t>ESys , KM1</t>
+  </si>
+  <si>
+    <t>Lukas Neu</t>
+  </si>
+  <si>
+    <t>ST , 18.1.01</t>
+  </si>
+  <si>
+    <t>Manuela Grün</t>
+  </si>
+  <si>
+    <t>RN , 21.0.01</t>
+  </si>
+  <si>
+    <t>SProg , 19.1.04</t>
+  </si>
+  <si>
+    <t>RGS , AM2</t>
+  </si>
+  <si>
+    <t>Max Müller</t>
+  </si>
+  <si>
     <t>Inf1 , AM2</t>
   </si>
   <si>
-    <t>Max Müller</t>
-  </si>
-  <si>
-    <t>Elt2 , 18.1.03</t>
+    <t>VSys , AM2</t>
+  </si>
+  <si>
+    <t>Ma II Inf , AM1</t>
+  </si>
+  <si>
+    <t>Db , 19.1.05</t>
+  </si>
+  <si>
+    <t>Prog1 , AM2</t>
+  </si>
+  <si>
+    <t>Ma/Phy2 , AM2</t>
+  </si>
+  <si>
+    <t>K2 , AM2</t>
+  </si>
+  <si>
+    <t>KiM , AM3</t>
+  </si>
+  <si>
+    <t>IT-R , AM2</t>
+  </si>
+  <si>
+    <t>GProg , AM2</t>
+  </si>
+  <si>
+    <t>Ma E 1 , AM2</t>
+  </si>
+  <si>
+    <t>GW 2 , AM2</t>
+  </si>
+  <si>
+    <t>MiP 3 , AM2</t>
+  </si>
+  <si>
+    <t>AMA 2 , AM2</t>
+  </si>
+  <si>
+    <t>DuI , AM2</t>
+  </si>
+  <si>
+    <t>CS I , AM2</t>
+  </si>
+  <si>
+    <t>Olga Grün</t>
+  </si>
+  <si>
+    <t>DT , KM1</t>
+  </si>
+  <si>
+    <t>RF 2 , 23.0.03</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Max Mustermann</t>
+  </si>
+  <si>
+    <t>Phy , AM3</t>
+  </si>
+  <si>
+    <t>RE , 18.1.04</t>
+  </si>
+  <si>
+    <t>DSys , AM6</t>
+  </si>
+  <si>
+    <t>Walter Weiß</t>
+  </si>
+  <si>
+    <t>Übs , 18.1.01</t>
+  </si>
+  <si>
+    <t>RN2 , 19.1.01</t>
+  </si>
+  <si>
+    <t>IP , KM2</t>
+  </si>
+  <si>
+    <t>RuC , AM3</t>
   </si>
   <si>
     <t>Werner Weiß</t>
   </si>
   <si>
+    <t>Prog 2 , 19.1.04</t>
+  </si>
+  <si>
+    <t>Inf 2 , AM1</t>
+  </si>
+  <si>
+    <t>PM_SM , 23.0.02</t>
+  </si>
+  <si>
+    <t>DSys , KM2</t>
+  </si>
+  <si>
+    <t>CuW , AM1</t>
+  </si>
+  <si>
+    <t>GM , AM3</t>
+  </si>
+  <si>
+    <t>Phy 2 , 18.1.03</t>
+  </si>
+  <si>
+    <t>AMA , AM3</t>
+  </si>
+  <si>
+    <t>Willi Mein</t>
+  </si>
+  <si>
+    <t>GW , 23.0.01</t>
+  </si>
+  <si>
+    <t>DuI 2 , AM1</t>
+  </si>
+  <si>
     <t>Studenten</t>
   </si>
   <si>
@@ -86,43 +416,457 @@
     <t>Mathematik 1</t>
   </si>
   <si>
+    <t>AM1,AM5</t>
+  </si>
+  <si>
+    <t>Informatik 1</t>
+  </si>
+  <si>
+    <t>AM2</t>
+  </si>
+  <si>
+    <t>Datenbanken</t>
+  </si>
+  <si>
+    <t>19.1.05</t>
+  </si>
+  <si>
+    <t>Programmieren 1</t>
+  </si>
+  <si>
+    <t>inf2</t>
+  </si>
+  <si>
+    <t>Programmieren 2</t>
+  </si>
+  <si>
+    <t>19.1.04</t>
+  </si>
+  <si>
+    <t>Informatik 2</t>
+  </si>
+  <si>
     <t>AM1</t>
   </si>
   <si>
-    <t>Informatik 1</t>
-  </si>
-  <si>
-    <t>AM2</t>
+    <t>Mathematik II für Informatiker*innen</t>
+  </si>
+  <si>
+    <t>Theoretische Informatik</t>
+  </si>
+  <si>
+    <t>17.1.03</t>
   </si>
   <si>
     <t>inf3</t>
   </si>
   <si>
-    <t>Elektronik 2</t>
+    <t>Softwaretechnik 1</t>
+  </si>
+  <si>
+    <t>19.1.01</t>
+  </si>
+  <si>
+    <t>Rechnernetze</t>
+  </si>
+  <si>
+    <t>21.0.01</t>
+  </si>
+  <si>
+    <t>Betriebssysteme</t>
+  </si>
+  <si>
+    <t>21.0.02</t>
+  </si>
+  <si>
+    <t>Verteilte Systeme</t>
+  </si>
+  <si>
+    <t>inf4</t>
+  </si>
+  <si>
+    <t>Betriebswirtschaftslehre</t>
+  </si>
+  <si>
+    <t>AM3</t>
+  </si>
+  <si>
+    <t>Datenmanagement</t>
+  </si>
+  <si>
+    <t>KM2</t>
+  </si>
+  <si>
+    <t>inf5</t>
+  </si>
+  <si>
+    <t>Formale Sprachen</t>
+  </si>
+  <si>
+    <t>18.1.01</t>
+  </si>
+  <si>
+    <t>Rechnernetze2</t>
+  </si>
+  <si>
+    <t>Betriebssysteme2</t>
+  </si>
+  <si>
+    <t>Verteilte Systeme2</t>
+  </si>
+  <si>
+    <t>Allgemeine Elektrotechnik</t>
+  </si>
+  <si>
+    <t>AET1</t>
+  </si>
+  <si>
+    <t>Physik</t>
+  </si>
+  <si>
+    <t>Grundlagen der Gleichstromtechnik</t>
+  </si>
+  <si>
+    <t>Prozedurale Programmierung</t>
+  </si>
+  <si>
+    <t>21.0.03</t>
+  </si>
+  <si>
+    <t>Projekt- und Selbstmanagement</t>
+  </si>
+  <si>
+    <t>23.0.02</t>
+  </si>
+  <si>
+    <t>AET2</t>
+  </si>
+  <si>
+    <t>Grundlagen der Wechselstromtechnik</t>
+  </si>
+  <si>
+    <t>Mathematik für Elektrotechniker</t>
+  </si>
+  <si>
+    <t>19.1.03</t>
+  </si>
+  <si>
+    <t>Digitaltechnik</t>
+  </si>
+  <si>
+    <t>KM1</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>ITB6</t>
+  </si>
+  <si>
+    <t>Computer Networks</t>
+  </si>
+  <si>
+    <t>18.1.04</t>
+  </si>
+  <si>
+    <t>Distributed Systems</t>
+  </si>
+  <si>
+    <t>AM5</t>
+  </si>
+  <si>
+    <t>Software Engineering II</t>
+  </si>
+  <si>
+    <t>Digital Signal Processing</t>
+  </si>
+  <si>
+    <t>AM6</t>
+  </si>
+  <si>
+    <t>ITB7</t>
+  </si>
+  <si>
+    <t>Network Security</t>
+  </si>
+  <si>
+    <t>19.1.02</t>
+  </si>
+  <si>
+    <t>Internet Programming</t>
+  </si>
+  <si>
+    <t>Principles of Compilers</t>
+  </si>
+  <si>
+    <t>Information Systems</t>
+  </si>
+  <si>
+    <t>Informationstechnologie und Design</t>
+  </si>
+  <si>
+    <t>ITD1</t>
+  </si>
+  <si>
+    <t>Mathematik/Physik 1</t>
   </si>
   <si>
     <t>18.1.03</t>
   </si>
   <si>
-    <t>inf5</t>
-  </si>
-  <si>
-    <t>Elektrotechnik- Kommunikationssysteme</t>
-  </si>
-  <si>
-    <t>eks1</t>
-  </si>
-  <si>
-    <t>Physik 1</t>
-  </si>
-  <si>
-    <t>AM1,18.1.03</t>
-  </si>
-  <si>
-    <t>Elektronik 1</t>
-  </si>
-  <si>
-    <t>eks3</t>
+    <t>Naturwissenschaftliche Grundlagen 1</t>
+  </si>
+  <si>
+    <t>Medientechnik</t>
+  </si>
+  <si>
+    <t>Grundlagen Programmierung</t>
+  </si>
+  <si>
+    <t>ITD2</t>
+  </si>
+  <si>
+    <t>Mathematik/Physik 2</t>
+  </si>
+  <si>
+    <t>Naturwissenschaftliche Grundlagen 2</t>
+  </si>
+  <si>
+    <t>Digitale Systeme</t>
+  </si>
+  <si>
+    <t>Vertiefung Programmierung</t>
+  </si>
+  <si>
+    <t>ITD3</t>
+  </si>
+  <si>
+    <t>Konzeption interaktiver Medien</t>
+  </si>
+  <si>
+    <t>ITD4</t>
+  </si>
+  <si>
+    <t>Computernetze und Webtechnologien</t>
+  </si>
+  <si>
+    <t>Skriptbasierte Programmierung</t>
+  </si>
+  <si>
+    <t>ITD6</t>
+  </si>
+  <si>
+    <t>ITD7</t>
+  </si>
+  <si>
+    <t>Gründungsmanagement</t>
+  </si>
+  <si>
+    <t>IT-Recht</t>
+  </si>
+  <si>
+    <t>Elektrotechnik - Kommunikationssysteme</t>
+  </si>
+  <si>
+    <t>EKS1</t>
+  </si>
+  <si>
+    <t>Mathematik EKS 1</t>
+  </si>
+  <si>
+    <t>Grundlagen der Elektrotechnik I</t>
+  </si>
+  <si>
+    <t>17.1.02</t>
+  </si>
+  <si>
+    <t>Grundlagen Gleichstrom</t>
+  </si>
+  <si>
+    <t>EKS2</t>
+  </si>
+  <si>
+    <t>Mikroprozessortechnik I</t>
+  </si>
+  <si>
+    <t>Mathematik EKS 2</t>
+  </si>
+  <si>
+    <t>Physik 2</t>
+  </si>
+  <si>
+    <t>Grundlagen der Elektrotechnik II</t>
+  </si>
+  <si>
+    <t>Grundlagen Wechselstrom</t>
+  </si>
+  <si>
+    <t>23.0.01</t>
+  </si>
+  <si>
+    <t>EKS3</t>
+  </si>
+  <si>
+    <t>Mathematik EKS 3</t>
+  </si>
+  <si>
+    <t>Physik 3</t>
+  </si>
+  <si>
+    <t>23.0.03</t>
+  </si>
+  <si>
+    <t>Grundlagen der Elektrotechnik III</t>
+  </si>
+  <si>
+    <t>Mikroprozessortechnik 3</t>
+  </si>
+  <si>
+    <t>EKS4</t>
+  </si>
+  <si>
+    <t>Regelungstechnik</t>
+  </si>
+  <si>
+    <t>Digitale Signalverarbeitung</t>
+  </si>
+  <si>
+    <t>Hochfrequenztechnik</t>
+  </si>
+  <si>
+    <t>Mikrowellentechnik</t>
+  </si>
+  <si>
+    <t>Rechnergestützer Schaltungsentwurf</t>
+  </si>
+  <si>
+    <t>EKS5</t>
+  </si>
+  <si>
+    <t>Hochintegrierte Schaltung</t>
+  </si>
+  <si>
+    <t>Digitale Übertragungstechnik</t>
+  </si>
+  <si>
+    <t>Kommunikationsnetze</t>
+  </si>
+  <si>
+    <t>Hardwareentwurf</t>
+  </si>
+  <si>
+    <t>Eingebettete Systeme</t>
+  </si>
+  <si>
+    <t>EKS6</t>
+  </si>
+  <si>
+    <t>Drahtlose Sensorsysteme</t>
+  </si>
+  <si>
+    <t>Sensortechnologien</t>
+  </si>
+  <si>
+    <t>PC-Messtechnik</t>
+  </si>
+  <si>
+    <t>Elektromagnetische Verträglichkeit</t>
+  </si>
+  <si>
+    <t>Angewandte Informationstechnik</t>
+  </si>
+  <si>
+    <t>AI1</t>
+  </si>
+  <si>
+    <t>Rechnungswesen und Controlling</t>
+  </si>
+  <si>
+    <t>Angewandte Mathematik</t>
+  </si>
+  <si>
+    <t>Datenbanken/Information</t>
+  </si>
+  <si>
+    <t>Kommunikationstechnik</t>
+  </si>
+  <si>
+    <t>AI2</t>
+  </si>
+  <si>
+    <t>Rechnungswesen und Controlling 2</t>
+  </si>
+  <si>
+    <t>Angewandte Mathematik 2</t>
+  </si>
+  <si>
+    <t>Datenbanken/Information 2</t>
+  </si>
+  <si>
+    <t>Kommunikationstechnik 2</t>
+  </si>
+  <si>
+    <t>AI3</t>
+  </si>
+  <si>
+    <t>Rechnungswesen und Controlling 3</t>
+  </si>
+  <si>
+    <t>Angewandte Mathematik 3</t>
+  </si>
+  <si>
+    <t>Datenbanken/Information 3</t>
+  </si>
+  <si>
+    <t>Kommunikationstechnik 3</t>
+  </si>
+  <si>
+    <t>Internationales Studium Elektrotechnik</t>
+  </si>
+  <si>
+    <t>ISE4</t>
+  </si>
+  <si>
+    <t>Radio Frequencies</t>
+  </si>
+  <si>
+    <t>Control Systems 1</t>
+  </si>
+  <si>
+    <t>Principles Communications I</t>
+  </si>
+  <si>
+    <t>Analog Electronics II</t>
+  </si>
+  <si>
+    <t>ISE5</t>
+  </si>
+  <si>
+    <t>Analog Electronics III</t>
+  </si>
+  <si>
+    <t>Principles Communications II</t>
+  </si>
+  <si>
+    <t>Radio Frequencies 2</t>
+  </si>
+  <si>
+    <t>Control Systems 2</t>
+  </si>
+  <si>
+    <t>ISE6</t>
+  </si>
+  <si>
+    <t>Radio Frequencies 3</t>
+  </si>
+  <si>
+    <t>Control Systems 3</t>
+  </si>
+  <si>
+    <t>Principles Communications III</t>
+  </si>
+  <si>
+    <t>Analog Electronics IV</t>
   </si>
 </sst>
 </file>
@@ -547,7 +1291,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM11"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="33" ySplit="5" topLeftCell="AH6" activePane="bottomRight" state="frozen"/>
@@ -564,7 +1308,7 @@
     <col min="4" max="9" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +1316,7 @@
         <v>44384</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="27.75" customHeight="1">
+    <row r="2" spans="1:41" ht="27.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -615,8 +1359,13 @@
       <c r="AH2" s="3"/>
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
-    </row>
-    <row r="3" spans="1:39" ht="35" customHeight="1">
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+    </row>
+    <row r="3" spans="1:41" ht="35" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -658,12 +1407,12 @@
       <c r="AJ3" s="5"/>
       <c r="AK3" s="5"/>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -773,7 +1522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="20" customHeight="1">
+    <row r="6" spans="1:41" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -781,43 +1530,421 @@
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="H6" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="AD6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI6" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:39" ht="20" customHeight="1">
+      <c r="AJ6" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1"/>
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y7" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="AE7" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" ht="20" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="F8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE8" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" ht="20" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="J9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ9" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="20" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="T10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI10" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" ht="20" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="Y11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI11" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" ht="20" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="E12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI12" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" ht="20" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="AD13" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" ht="20" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="E14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="U14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF14" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" ht="20" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="E15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" ht="20" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="E16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL16" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" ht="20" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="T17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA17" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" ht="20" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="AD18" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" ht="20" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="Z19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ19" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" ht="20" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="J20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="U20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="W20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK20" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" ht="20" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="E21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" ht="20" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="Q22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI22" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" ht="20" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="F23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ23" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" ht="20" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="F24" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="AD8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI8" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" ht="20" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="11" spans="1:39" ht="2" customHeight="1"/>
+      <c r="P24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="U24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE24" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" ht="20" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="K25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z25" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" ht="2" customHeight="1"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="28">
     <mergeCell ref="A3:C5"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J3:L3"/>
@@ -830,6 +1957,22 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -837,7 +1980,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ19"/>
+  <dimension ref="A1:AO163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="33" ySplit="3" topLeftCell="AH4" activePane="bottomRight" state="frozen"/>
@@ -854,7 +1997,7 @@
     <col min="4" max="51" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -862,7 +2005,7 @@
         <v>44384</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="27.75" customHeight="1">
+    <row r="2" spans="1:41" ht="27.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -875,7 +2018,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -905,8 +2048,13 @@
       <c r="AH2" s="3"/>
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
-    </row>
-    <row r="3" spans="1:36" ht="26" customHeight="1">
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+    </row>
+    <row r="3" spans="1:41" ht="26" customHeight="1">
       <c r="D3" s="5">
         <v>44396</v>
       </c>
@@ -936,9 +2084,9 @@
       </c>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:41">
       <c r="A4" s="8" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -974,9 +2122,9 @@
       <c r="AG4" s="8"/>
       <c r="AH4" s="8"/>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:41">
       <c r="A5" s="7" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1012,263 +2160,2524 @@
       <c r="AG5" s="7"/>
       <c r="AH5" s="7"/>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:41">
       <c r="A6" s="9" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="10" t="s">
+      <c r="H6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:41">
+      <c r="A7" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="L7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="P8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="A9" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="N9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:36">
-      <c r="A7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="N7" s="10" t="s">
+      <c r="O9" s="10"/>
+    </row>
+    <row r="11" spans="1:41">
+      <c r="A11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+    </row>
+    <row r="12" spans="1:41">
+      <c r="A12" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="L12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:41">
+      <c r="A13" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="H13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="10"/>
-    </row>
-    <row r="9" spans="1:36">
-      <c r="A9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-    </row>
-    <row r="10" spans="1:36">
-      <c r="A10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="N10" s="10" t="s">
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:41">
+      <c r="A14" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="N14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="1:41">
+      <c r="A15" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="J15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="A18" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="10"/>
-    </row>
-    <row r="12" spans="1:36">
-      <c r="A12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-    </row>
-    <row r="14" spans="1:36">
-      <c r="A14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8"/>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="8"/>
-    </row>
-    <row r="15" spans="1:36">
-      <c r="A15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
-    </row>
-    <row r="16" spans="1:36">
-      <c r="A16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="P16" s="10" t="s">
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:34">
+      <c r="A19" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="L19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="F20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:34">
+      <c r="A21" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="H21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="23" spans="1:34">
+      <c r="A23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+    </row>
+    <row r="24" spans="1:34">
+      <c r="A24" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="F24" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q16" s="10"/>
-    </row>
-    <row r="17" spans="1:34">
-      <c r="A17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="N17" s="10" t="s">
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:34">
+      <c r="A25" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="27" spans="1:34">
+      <c r="A27" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="7"/>
+    </row>
+    <row r="28" spans="1:34">
+      <c r="A28" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:34">
+      <c r="A29" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="P29" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q29" s="10"/>
+    </row>
+    <row r="30" spans="1:34">
+      <c r="A30" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="N30" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="O17" s="10"/>
-    </row>
-    <row r="19" spans="1:34">
-      <c r="A19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
+      <c r="O30" s="10"/>
+    </row>
+    <row r="31" spans="1:34">
+      <c r="A31" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="J31" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="10"/>
+    </row>
+    <row r="33" spans="1:34">
+      <c r="A33" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+    </row>
+    <row r="34" spans="1:34">
+      <c r="A34" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
+    </row>
+    <row r="35" spans="1:34">
+      <c r="A35" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="P35" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="10"/>
+    </row>
+    <row r="36" spans="1:34">
+      <c r="A36" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="L36" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M36" s="10"/>
+    </row>
+    <row r="37" spans="1:34">
+      <c r="A37" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="J37" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K37" s="10"/>
+    </row>
+    <row r="38" spans="1:34">
+      <c r="A38" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="1:34">
+      <c r="A39" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="H39" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I39" s="10"/>
+    </row>
+    <row r="41" spans="1:34">
+      <c r="A41" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+    </row>
+    <row r="42" spans="1:34">
+      <c r="A42" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" spans="1:34">
+      <c r="A43" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="L43" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M43" s="10"/>
+    </row>
+    <row r="44" spans="1:34">
+      <c r="A44" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="J44" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="10"/>
+    </row>
+    <row r="46" spans="1:34">
+      <c r="A46" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="8"/>
+      <c r="AH46" s="8"/>
+    </row>
+    <row r="47" spans="1:34">
+      <c r="A47" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="7"/>
+    </row>
+    <row r="48" spans="1:34">
+      <c r="A48" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="J48" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="1:34">
+      <c r="A49" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="L49" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M49" s="10"/>
+    </row>
+    <row r="50" spans="1:34">
+      <c r="A50" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="P50" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q50" s="10"/>
+    </row>
+    <row r="51" spans="1:34">
+      <c r="A51" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="N51" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O51" s="10"/>
+    </row>
+    <row r="53" spans="1:34">
+      <c r="A53" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="7"/>
+      <c r="AB53" s="7"/>
+      <c r="AC53" s="7"/>
+      <c r="AD53" s="7"/>
+      <c r="AE53" s="7"/>
+      <c r="AF53" s="7"/>
+      <c r="AG53" s="7"/>
+      <c r="AH53" s="7"/>
+    </row>
+    <row r="54" spans="1:34">
+      <c r="A54" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="J54" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="10"/>
+    </row>
+    <row r="55" spans="1:34">
+      <c r="A55" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="N55" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O55" s="10"/>
+    </row>
+    <row r="56" spans="1:34">
+      <c r="A56" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="L56" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M56" s="10"/>
+    </row>
+    <row r="57" spans="1:34">
+      <c r="A57" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="P57" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q57" s="10"/>
+    </row>
+    <row r="59" spans="1:34">
+      <c r="A59" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="8"/>
+      <c r="AC59" s="8"/>
+      <c r="AD59" s="8"/>
+      <c r="AE59" s="8"/>
+      <c r="AF59" s="8"/>
+      <c r="AG59" s="8"/>
+      <c r="AH59" s="8"/>
+    </row>
+    <row r="60" spans="1:34">
+      <c r="A60" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="7"/>
+      <c r="AB60" s="7"/>
+      <c r="AC60" s="7"/>
+      <c r="AD60" s="7"/>
+      <c r="AE60" s="7"/>
+      <c r="AF60" s="7"/>
+      <c r="AG60" s="7"/>
+      <c r="AH60" s="7"/>
+    </row>
+    <row r="61" spans="1:34">
+      <c r="A61" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="P61" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q61" s="10"/>
+    </row>
+    <row r="62" spans="1:34">
+      <c r="A62" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="N62" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="10"/>
+    </row>
+    <row r="63" spans="1:34">
+      <c r="A63" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="L63" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M63" s="10"/>
+    </row>
+    <row r="64" spans="1:34">
+      <c r="A64" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="J64" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K64" s="10"/>
+    </row>
+    <row r="66" spans="1:34">
+      <c r="A66" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="7"/>
+      <c r="Y66" s="7"/>
+      <c r="Z66" s="7"/>
+      <c r="AA66" s="7"/>
+      <c r="AB66" s="7"/>
+      <c r="AC66" s="7"/>
+      <c r="AD66" s="7"/>
+      <c r="AE66" s="7"/>
+      <c r="AF66" s="7"/>
+      <c r="AG66" s="7"/>
+      <c r="AH66" s="7"/>
+    </row>
+    <row r="67" spans="1:34">
+      <c r="A67" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="J67" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K67" s="10"/>
+    </row>
+    <row r="68" spans="1:34">
+      <c r="A68" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="H68" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I68" s="10"/>
+    </row>
+    <row r="69" spans="1:34">
+      <c r="A69" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="F69" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69" s="10"/>
+    </row>
+    <row r="70" spans="1:34">
+      <c r="A70" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="10"/>
+    </row>
+    <row r="72" spans="1:34">
+      <c r="A72" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="7"/>
+      <c r="Y72" s="7"/>
+      <c r="Z72" s="7"/>
+      <c r="AA72" s="7"/>
+      <c r="AB72" s="7"/>
+      <c r="AC72" s="7"/>
+      <c r="AD72" s="7"/>
+      <c r="AE72" s="7"/>
+      <c r="AF72" s="7"/>
+      <c r="AG72" s="7"/>
+      <c r="AH72" s="7"/>
+    </row>
+    <row r="73" spans="1:34">
+      <c r="A73" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="9"/>
+      <c r="H73" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I73" s="10"/>
+    </row>
+    <row r="75" spans="1:34">
+      <c r="A75" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="7"/>
+      <c r="Z75" s="7"/>
+      <c r="AA75" s="7"/>
+      <c r="AB75" s="7"/>
+      <c r="AC75" s="7"/>
+      <c r="AD75" s="7"/>
+      <c r="AE75" s="7"/>
+      <c r="AF75" s="7"/>
+      <c r="AG75" s="7"/>
+      <c r="AH75" s="7"/>
+    </row>
+    <row r="76" spans="1:34">
+      <c r="A76" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" s="9"/>
+      <c r="F76" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="10"/>
+    </row>
+    <row r="77" spans="1:34">
+      <c r="A77" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="P77" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q77" s="10"/>
+    </row>
+    <row r="79" spans="1:34">
+      <c r="A79" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
+      <c r="Y79" s="7"/>
+      <c r="Z79" s="7"/>
+      <c r="AA79" s="7"/>
+      <c r="AB79" s="7"/>
+      <c r="AC79" s="7"/>
+      <c r="AD79" s="7"/>
+      <c r="AE79" s="7"/>
+      <c r="AF79" s="7"/>
+      <c r="AG79" s="7"/>
+      <c r="AH79" s="7"/>
+    </row>
+    <row r="80" spans="1:34">
+      <c r="A80" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C80" s="9"/>
+      <c r="D80" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="10"/>
+    </row>
+    <row r="82" spans="1:34">
+      <c r="A82" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="7"/>
+      <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
+      <c r="W82" s="7"/>
+      <c r="X82" s="7"/>
+      <c r="Y82" s="7"/>
+      <c r="Z82" s="7"/>
+      <c r="AA82" s="7"/>
+      <c r="AB82" s="7"/>
+      <c r="AC82" s="7"/>
+      <c r="AD82" s="7"/>
+      <c r="AE82" s="7"/>
+      <c r="AF82" s="7"/>
+      <c r="AG82" s="7"/>
+      <c r="AH82" s="7"/>
+    </row>
+    <row r="83" spans="1:34">
+      <c r="A83" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="9"/>
+      <c r="J83" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="10"/>
+    </row>
+    <row r="84" spans="1:34">
+      <c r="A84" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C84" s="9"/>
+      <c r="L84" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M84" s="10"/>
+    </row>
+    <row r="86" spans="1:34">
+      <c r="A86" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="8"/>
+      <c r="N86" s="8"/>
+      <c r="O86" s="8"/>
+      <c r="P86" s="8"/>
+      <c r="Q86" s="8"/>
+      <c r="R86" s="8"/>
+      <c r="S86" s="8"/>
+      <c r="T86" s="8"/>
+      <c r="U86" s="8"/>
+      <c r="V86" s="8"/>
+      <c r="W86" s="8"/>
+      <c r="X86" s="8"/>
+      <c r="Y86" s="8"/>
+      <c r="Z86" s="8"/>
+      <c r="AA86" s="8"/>
+      <c r="AB86" s="8"/>
+      <c r="AC86" s="8"/>
+      <c r="AD86" s="8"/>
+      <c r="AE86" s="8"/>
+      <c r="AF86" s="8"/>
+      <c r="AG86" s="8"/>
+      <c r="AH86" s="8"/>
+    </row>
+    <row r="87" spans="1:34">
+      <c r="A87" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+      <c r="X87" s="7"/>
+      <c r="Y87" s="7"/>
+      <c r="Z87" s="7"/>
+      <c r="AA87" s="7"/>
+      <c r="AB87" s="7"/>
+      <c r="AC87" s="7"/>
+      <c r="AD87" s="7"/>
+      <c r="AE87" s="7"/>
+      <c r="AF87" s="7"/>
+      <c r="AG87" s="7"/>
+      <c r="AH87" s="7"/>
+    </row>
+    <row r="88" spans="1:34">
+      <c r="A88" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C88" s="9"/>
+      <c r="P88" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q88" s="10"/>
+    </row>
+    <row r="89" spans="1:34">
+      <c r="A89" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C89" s="9"/>
+      <c r="F89" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="10"/>
+    </row>
+    <row r="90" spans="1:34">
+      <c r="A90" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C90" s="9"/>
+      <c r="N90" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O90" s="10"/>
+    </row>
+    <row r="91" spans="1:34">
+      <c r="A91" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C91" s="9"/>
+      <c r="J91" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K91" s="10"/>
+    </row>
+    <row r="93" spans="1:34">
+      <c r="A93" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="7"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
+      <c r="V93" s="7"/>
+      <c r="W93" s="7"/>
+      <c r="X93" s="7"/>
+      <c r="Y93" s="7"/>
+      <c r="Z93" s="7"/>
+      <c r="AA93" s="7"/>
+      <c r="AB93" s="7"/>
+      <c r="AC93" s="7"/>
+      <c r="AD93" s="7"/>
+      <c r="AE93" s="7"/>
+      <c r="AF93" s="7"/>
+      <c r="AG93" s="7"/>
+      <c r="AH93" s="7"/>
+    </row>
+    <row r="94" spans="1:34">
+      <c r="A94" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C94" s="9"/>
+      <c r="L94" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="10"/>
+    </row>
+    <row r="95" spans="1:34">
+      <c r="A95" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C95" s="9"/>
+      <c r="H95" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I95" s="10"/>
+    </row>
+    <row r="96" spans="1:34">
+      <c r="A96" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C96" s="9"/>
+      <c r="N96" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O96" s="10"/>
+    </row>
+    <row r="97" spans="1:34">
+      <c r="A97" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C97" s="9"/>
+      <c r="P97" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q97" s="10"/>
+    </row>
+    <row r="98" spans="1:34">
+      <c r="A98" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C98" s="9"/>
+      <c r="F98" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G98" s="10"/>
+    </row>
+    <row r="100" spans="1:34">
+      <c r="A100" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7"/>
+      <c r="S100" s="7"/>
+      <c r="T100" s="7"/>
+      <c r="U100" s="7"/>
+      <c r="V100" s="7"/>
+      <c r="W100" s="7"/>
+      <c r="X100" s="7"/>
+      <c r="Y100" s="7"/>
+      <c r="Z100" s="7"/>
+      <c r="AA100" s="7"/>
+      <c r="AB100" s="7"/>
+      <c r="AC100" s="7"/>
+      <c r="AD100" s="7"/>
+      <c r="AE100" s="7"/>
+      <c r="AF100" s="7"/>
+      <c r="AG100" s="7"/>
+      <c r="AH100" s="7"/>
+    </row>
+    <row r="101" spans="1:34">
+      <c r="A101" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C101" s="9"/>
+      <c r="L101" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="10"/>
+    </row>
+    <row r="102" spans="1:34">
+      <c r="A102" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C102" s="9"/>
+      <c r="H102" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="10"/>
+    </row>
+    <row r="103" spans="1:34">
+      <c r="A103" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C103" s="9"/>
+      <c r="D103" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="10"/>
+    </row>
+    <row r="104" spans="1:34">
+      <c r="A104" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C104" s="9"/>
+      <c r="J104" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K104" s="10"/>
+    </row>
+    <row r="105" spans="1:34">
+      <c r="A105" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C105" s="9"/>
+      <c r="P105" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q105" s="10"/>
+    </row>
+    <row r="107" spans="1:34">
+      <c r="A107" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="7"/>
+      <c r="O107" s="7"/>
+      <c r="P107" s="7"/>
+      <c r="Q107" s="7"/>
+      <c r="R107" s="7"/>
+      <c r="S107" s="7"/>
+      <c r="T107" s="7"/>
+      <c r="U107" s="7"/>
+      <c r="V107" s="7"/>
+      <c r="W107" s="7"/>
+      <c r="X107" s="7"/>
+      <c r="Y107" s="7"/>
+      <c r="Z107" s="7"/>
+      <c r="AA107" s="7"/>
+      <c r="AB107" s="7"/>
+      <c r="AC107" s="7"/>
+      <c r="AD107" s="7"/>
+      <c r="AE107" s="7"/>
+      <c r="AF107" s="7"/>
+      <c r="AG107" s="7"/>
+      <c r="AH107" s="7"/>
+    </row>
+    <row r="108" spans="1:34">
+      <c r="A108" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C108" s="9"/>
+      <c r="H108" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I108" s="10"/>
+    </row>
+    <row r="109" spans="1:34">
+      <c r="A109" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C109" s="9"/>
+      <c r="J109" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K109" s="10"/>
+    </row>
+    <row r="110" spans="1:34">
+      <c r="A110" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C110" s="9"/>
+      <c r="D110" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" s="10"/>
+    </row>
+    <row r="111" spans="1:34">
+      <c r="A111" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C111" s="9"/>
+      <c r="N111" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O111" s="10"/>
+    </row>
+    <row r="112" spans="1:34">
+      <c r="A112" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C112" s="9"/>
+      <c r="P112" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q112" s="10"/>
+    </row>
+    <row r="114" spans="1:34">
+      <c r="A114" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="7"/>
+      <c r="M114" s="7"/>
+      <c r="N114" s="7"/>
+      <c r="O114" s="7"/>
+      <c r="P114" s="7"/>
+      <c r="Q114" s="7"/>
+      <c r="R114" s="7"/>
+      <c r="S114" s="7"/>
+      <c r="T114" s="7"/>
+      <c r="U114" s="7"/>
+      <c r="V114" s="7"/>
+      <c r="W114" s="7"/>
+      <c r="X114" s="7"/>
+      <c r="Y114" s="7"/>
+      <c r="Z114" s="7"/>
+      <c r="AA114" s="7"/>
+      <c r="AB114" s="7"/>
+      <c r="AC114" s="7"/>
+      <c r="AD114" s="7"/>
+      <c r="AE114" s="7"/>
+      <c r="AF114" s="7"/>
+      <c r="AG114" s="7"/>
+      <c r="AH114" s="7"/>
+    </row>
+    <row r="115" spans="1:34">
+      <c r="A115" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C115" s="9"/>
+      <c r="J115" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K115" s="10"/>
+    </row>
+    <row r="116" spans="1:34">
+      <c r="A116" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C116" s="9"/>
+      <c r="D116" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E116" s="10"/>
+    </row>
+    <row r="117" spans="1:34">
+      <c r="A117" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C117" s="9"/>
+      <c r="F117" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G117" s="10"/>
+    </row>
+    <row r="118" spans="1:34">
+      <c r="A118" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C118" s="9"/>
+      <c r="H118" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I118" s="10"/>
+    </row>
+    <row r="119" spans="1:34">
+      <c r="A119" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C119" s="9"/>
+      <c r="L119" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M119" s="10"/>
+    </row>
+    <row r="121" spans="1:34">
+      <c r="A121" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7"/>
+      <c r="J121" s="7"/>
+      <c r="K121" s="7"/>
+      <c r="L121" s="7"/>
+      <c r="M121" s="7"/>
+      <c r="N121" s="7"/>
+      <c r="O121" s="7"/>
+      <c r="P121" s="7"/>
+      <c r="Q121" s="7"/>
+      <c r="R121" s="7"/>
+      <c r="S121" s="7"/>
+      <c r="T121" s="7"/>
+      <c r="U121" s="7"/>
+      <c r="V121" s="7"/>
+      <c r="W121" s="7"/>
+      <c r="X121" s="7"/>
+      <c r="Y121" s="7"/>
+      <c r="Z121" s="7"/>
+      <c r="AA121" s="7"/>
+      <c r="AB121" s="7"/>
+      <c r="AC121" s="7"/>
+      <c r="AD121" s="7"/>
+      <c r="AE121" s="7"/>
+      <c r="AF121" s="7"/>
+      <c r="AG121" s="7"/>
+      <c r="AH121" s="7"/>
+    </row>
+    <row r="122" spans="1:34">
+      <c r="A122" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C122" s="9"/>
+      <c r="L122" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M122" s="10"/>
+    </row>
+    <row r="123" spans="1:34">
+      <c r="A123" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C123" s="9"/>
+      <c r="N123" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O123" s="10"/>
+    </row>
+    <row r="124" spans="1:34">
+      <c r="A124" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C124" s="9"/>
+      <c r="D124" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="10"/>
+    </row>
+    <row r="125" spans="1:34">
+      <c r="A125" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C125" s="9"/>
+      <c r="F125" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G125" s="10"/>
+    </row>
+    <row r="127" spans="1:34">
+      <c r="A127" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="8"/>
+      <c r="L127" s="8"/>
+      <c r="M127" s="8"/>
+      <c r="N127" s="8"/>
+      <c r="O127" s="8"/>
+      <c r="P127" s="8"/>
+      <c r="Q127" s="8"/>
+      <c r="R127" s="8"/>
+      <c r="S127" s="8"/>
+      <c r="T127" s="8"/>
+      <c r="U127" s="8"/>
+      <c r="V127" s="8"/>
+      <c r="W127" s="8"/>
+      <c r="X127" s="8"/>
+      <c r="Y127" s="8"/>
+      <c r="Z127" s="8"/>
+      <c r="AA127" s="8"/>
+      <c r="AB127" s="8"/>
+      <c r="AC127" s="8"/>
+      <c r="AD127" s="8"/>
+      <c r="AE127" s="8"/>
+      <c r="AF127" s="8"/>
+      <c r="AG127" s="8"/>
+      <c r="AH127" s="8"/>
+    </row>
+    <row r="128" spans="1:34">
+      <c r="A128" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="7"/>
+      <c r="J128" s="7"/>
+      <c r="K128" s="7"/>
+      <c r="L128" s="7"/>
+      <c r="M128" s="7"/>
+      <c r="N128" s="7"/>
+      <c r="O128" s="7"/>
+      <c r="P128" s="7"/>
+      <c r="Q128" s="7"/>
+      <c r="R128" s="7"/>
+      <c r="S128" s="7"/>
+      <c r="T128" s="7"/>
+      <c r="U128" s="7"/>
+      <c r="V128" s="7"/>
+      <c r="W128" s="7"/>
+      <c r="X128" s="7"/>
+      <c r="Y128" s="7"/>
+      <c r="Z128" s="7"/>
+      <c r="AA128" s="7"/>
+      <c r="AB128" s="7"/>
+      <c r="AC128" s="7"/>
+      <c r="AD128" s="7"/>
+      <c r="AE128" s="7"/>
+      <c r="AF128" s="7"/>
+      <c r="AG128" s="7"/>
+      <c r="AH128" s="7"/>
+    </row>
+    <row r="129" spans="1:34">
+      <c r="A129" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C129" s="9"/>
+      <c r="D129" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129" s="10"/>
+    </row>
+    <row r="130" spans="1:34">
+      <c r="A130" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C130" s="9"/>
+      <c r="J130" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K130" s="10"/>
+    </row>
+    <row r="131" spans="1:34">
+      <c r="A131" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C131" s="9"/>
+      <c r="N131" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O131" s="10"/>
+    </row>
+    <row r="132" spans="1:34">
+      <c r="A132" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C132" s="9"/>
+      <c r="P132" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q132" s="10"/>
+    </row>
+    <row r="134" spans="1:34">
+      <c r="A134" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="7"/>
+      <c r="J134" s="7"/>
+      <c r="K134" s="7"/>
+      <c r="L134" s="7"/>
+      <c r="M134" s="7"/>
+      <c r="N134" s="7"/>
+      <c r="O134" s="7"/>
+      <c r="P134" s="7"/>
+      <c r="Q134" s="7"/>
+      <c r="R134" s="7"/>
+      <c r="S134" s="7"/>
+      <c r="T134" s="7"/>
+      <c r="U134" s="7"/>
+      <c r="V134" s="7"/>
+      <c r="W134" s="7"/>
+      <c r="X134" s="7"/>
+      <c r="Y134" s="7"/>
+      <c r="Z134" s="7"/>
+      <c r="AA134" s="7"/>
+      <c r="AB134" s="7"/>
+      <c r="AC134" s="7"/>
+      <c r="AD134" s="7"/>
+      <c r="AE134" s="7"/>
+      <c r="AF134" s="7"/>
+      <c r="AG134" s="7"/>
+      <c r="AH134" s="7"/>
+    </row>
+    <row r="135" spans="1:34">
+      <c r="A135" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135" s="9"/>
+      <c r="H135" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I135" s="10"/>
+    </row>
+    <row r="136" spans="1:34">
+      <c r="A136" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C136" s="9"/>
+      <c r="F136" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G136" s="10"/>
+    </row>
+    <row r="137" spans="1:34">
+      <c r="A137" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C137" s="9"/>
+      <c r="L137" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M137" s="10"/>
+    </row>
+    <row r="138" spans="1:34">
+      <c r="A138" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C138" s="9"/>
+      <c r="P138" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q138" s="10"/>
+    </row>
+    <row r="140" spans="1:34">
+      <c r="A140" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="7"/>
+      <c r="J140" s="7"/>
+      <c r="K140" s="7"/>
+      <c r="L140" s="7"/>
+      <c r="M140" s="7"/>
+      <c r="N140" s="7"/>
+      <c r="O140" s="7"/>
+      <c r="P140" s="7"/>
+      <c r="Q140" s="7"/>
+      <c r="R140" s="7"/>
+      <c r="S140" s="7"/>
+      <c r="T140" s="7"/>
+      <c r="U140" s="7"/>
+      <c r="V140" s="7"/>
+      <c r="W140" s="7"/>
+      <c r="X140" s="7"/>
+      <c r="Y140" s="7"/>
+      <c r="Z140" s="7"/>
+      <c r="AA140" s="7"/>
+      <c r="AB140" s="7"/>
+      <c r="AC140" s="7"/>
+      <c r="AD140" s="7"/>
+      <c r="AE140" s="7"/>
+      <c r="AF140" s="7"/>
+      <c r="AG140" s="7"/>
+      <c r="AH140" s="7"/>
+    </row>
+    <row r="141" spans="1:34">
+      <c r="A141" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C141" s="9"/>
+      <c r="L141" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M141" s="10"/>
+    </row>
+    <row r="142" spans="1:34">
+      <c r="A142" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C142" s="9"/>
+      <c r="N142" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O142" s="10"/>
+    </row>
+    <row r="143" spans="1:34">
+      <c r="A143" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C143" s="9"/>
+      <c r="D143" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E143" s="10"/>
+    </row>
+    <row r="144" spans="1:34">
+      <c r="A144" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C144" s="9"/>
+      <c r="J144" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K144" s="10"/>
+    </row>
+    <row r="146" spans="1:34">
+      <c r="A146" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="8"/>
+      <c r="J146" s="8"/>
+      <c r="K146" s="8"/>
+      <c r="L146" s="8"/>
+      <c r="M146" s="8"/>
+      <c r="N146" s="8"/>
+      <c r="O146" s="8"/>
+      <c r="P146" s="8"/>
+      <c r="Q146" s="8"/>
+      <c r="R146" s="8"/>
+      <c r="S146" s="8"/>
+      <c r="T146" s="8"/>
+      <c r="U146" s="8"/>
+      <c r="V146" s="8"/>
+      <c r="W146" s="8"/>
+      <c r="X146" s="8"/>
+      <c r="Y146" s="8"/>
+      <c r="Z146" s="8"/>
+      <c r="AA146" s="8"/>
+      <c r="AB146" s="8"/>
+      <c r="AC146" s="8"/>
+      <c r="AD146" s="8"/>
+      <c r="AE146" s="8"/>
+      <c r="AF146" s="8"/>
+      <c r="AG146" s="8"/>
+      <c r="AH146" s="8"/>
+    </row>
+    <row r="147" spans="1:34">
+      <c r="A147" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B147" s="7"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="7"/>
+      <c r="J147" s="7"/>
+      <c r="K147" s="7"/>
+      <c r="L147" s="7"/>
+      <c r="M147" s="7"/>
+      <c r="N147" s="7"/>
+      <c r="O147" s="7"/>
+      <c r="P147" s="7"/>
+      <c r="Q147" s="7"/>
+      <c r="R147" s="7"/>
+      <c r="S147" s="7"/>
+      <c r="T147" s="7"/>
+      <c r="U147" s="7"/>
+      <c r="V147" s="7"/>
+      <c r="W147" s="7"/>
+      <c r="X147" s="7"/>
+      <c r="Y147" s="7"/>
+      <c r="Z147" s="7"/>
+      <c r="AA147" s="7"/>
+      <c r="AB147" s="7"/>
+      <c r="AC147" s="7"/>
+      <c r="AD147" s="7"/>
+      <c r="AE147" s="7"/>
+      <c r="AF147" s="7"/>
+      <c r="AG147" s="7"/>
+      <c r="AH147" s="7"/>
+    </row>
+    <row r="148" spans="1:34">
+      <c r="A148" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C148" s="9"/>
+      <c r="H148" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I148" s="10"/>
+    </row>
+    <row r="149" spans="1:34">
+      <c r="A149" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C149" s="9"/>
+      <c r="F149" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G149" s="10"/>
+    </row>
+    <row r="150" spans="1:34">
+      <c r="A150" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C150" s="9"/>
+      <c r="J150" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K150" s="10"/>
+    </row>
+    <row r="151" spans="1:34">
+      <c r="A151" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C151" s="9"/>
+      <c r="L151" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M151" s="10"/>
+    </row>
+    <row r="153" spans="1:34">
+      <c r="A153" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B153" s="7"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="7"/>
+      <c r="J153" s="7"/>
+      <c r="K153" s="7"/>
+      <c r="L153" s="7"/>
+      <c r="M153" s="7"/>
+      <c r="N153" s="7"/>
+      <c r="O153" s="7"/>
+      <c r="P153" s="7"/>
+      <c r="Q153" s="7"/>
+      <c r="R153" s="7"/>
+      <c r="S153" s="7"/>
+      <c r="T153" s="7"/>
+      <c r="U153" s="7"/>
+      <c r="V153" s="7"/>
+      <c r="W153" s="7"/>
+      <c r="X153" s="7"/>
+      <c r="Y153" s="7"/>
+      <c r="Z153" s="7"/>
+      <c r="AA153" s="7"/>
+      <c r="AB153" s="7"/>
+      <c r="AC153" s="7"/>
+      <c r="AD153" s="7"/>
+      <c r="AE153" s="7"/>
+      <c r="AF153" s="7"/>
+      <c r="AG153" s="7"/>
+      <c r="AH153" s="7"/>
+    </row>
+    <row r="154" spans="1:34">
+      <c r="A154" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C154" s="9"/>
+      <c r="P154" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q154" s="10"/>
+    </row>
+    <row r="155" spans="1:34">
+      <c r="A155" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C155" s="9"/>
+      <c r="J155" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K155" s="10"/>
+    </row>
+    <row r="156" spans="1:34">
+      <c r="A156" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C156" s="9"/>
+      <c r="D156" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E156" s="10"/>
+    </row>
+    <row r="157" spans="1:34">
+      <c r="A157" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C157" s="9"/>
+      <c r="N157" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O157" s="10"/>
+    </row>
+    <row r="159" spans="1:34">
+      <c r="A159" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B159" s="7"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="7"/>
+      <c r="J159" s="7"/>
+      <c r="K159" s="7"/>
+      <c r="L159" s="7"/>
+      <c r="M159" s="7"/>
+      <c r="N159" s="7"/>
+      <c r="O159" s="7"/>
+      <c r="P159" s="7"/>
+      <c r="Q159" s="7"/>
+      <c r="R159" s="7"/>
+      <c r="S159" s="7"/>
+      <c r="T159" s="7"/>
+      <c r="U159" s="7"/>
+      <c r="V159" s="7"/>
+      <c r="W159" s="7"/>
+      <c r="X159" s="7"/>
+      <c r="Y159" s="7"/>
+      <c r="Z159" s="7"/>
+      <c r="AA159" s="7"/>
+      <c r="AB159" s="7"/>
+      <c r="AC159" s="7"/>
+      <c r="AD159" s="7"/>
+      <c r="AE159" s="7"/>
+      <c r="AF159" s="7"/>
+      <c r="AG159" s="7"/>
+      <c r="AH159" s="7"/>
+    </row>
+    <row r="160" spans="1:34">
+      <c r="A160" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C160" s="9"/>
+      <c r="P160" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q160" s="10"/>
+    </row>
+    <row r="161" spans="1:15">
+      <c r="A161" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C161" s="9"/>
+      <c r="N161" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O161" s="10"/>
+    </row>
+    <row r="162" spans="1:15">
+      <c r="A162" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C162" s="9"/>
+      <c r="L162" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M162" s="10"/>
+    </row>
+    <row r="163" spans="1:15">
+      <c r="A163" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C163" s="9"/>
+      <c r="J163" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K163" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="241">
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
@@ -1279,20 +4688,237 @@
     <mergeCell ref="A4:AH4"/>
     <mergeCell ref="A5:AH5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A9:AH9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="A12:AH12"/>
-    <mergeCell ref="A14:AH14"/>
-    <mergeCell ref="A15:AH15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="A19:AH19"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A11:AH11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="A17:AH17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A23:AH23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A27:AH27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="A33:AH33"/>
+    <mergeCell ref="A34:AH34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="A41:AH41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="A46:AH46"/>
+    <mergeCell ref="A47:AH47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A53:AH53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A59:AH59"/>
+    <mergeCell ref="A60:AH60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="A66:AH66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="A72:AH72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="A75:AH75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A79:AH79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="A82:AH82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="A86:AH86"/>
+    <mergeCell ref="A87:AH87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="A93:AH93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="A100:AH100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A107:AH107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A114:AH114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="A121:AH121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="A127:AH127"/>
+    <mergeCell ref="A128:AH128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="J130:K130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="A134:AH134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="A140:AH140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="J144:K144"/>
+    <mergeCell ref="A146:AH146"/>
+    <mergeCell ref="A147:AH147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="L151:M151"/>
+    <mergeCell ref="A153:AH153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="P154:Q154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="N157:O157"/>
+    <mergeCell ref="A159:AH159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="P160:Q160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="N161:O161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="L162:M162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="J163:K163"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TH-Lübeck_Prüfungsplan_Elektrotechnik_Informatik_SoSe-2021.xlsx
+++ b/TH-Lübeck_Prüfungsplan_Elektrotechnik_Informatik_SoSe-2021.xlsx
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>44386</v>
+        <v>44387</v>
       </c>
     </row>
     <row r="2" spans="1:41" ht="27.75" customHeight="1">
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>44386</v>
+        <v>44387</v>
       </c>
     </row>
     <row r="2" spans="1:41" ht="27.75" customHeight="1">
